--- a/Desgin/NPC_ATTR.xlsx
+++ b/Desgin/NPC_ATTR.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="属性相关" sheetId="1" r:id="rId1"/>
     <sheet name="兵种克制" sheetId="2" r:id="rId2"/>
     <sheet name="兵种进化" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,11 +331,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +426,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -472,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,9 +512,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,6 +547,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -713,26 +723,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -820,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -863,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -906,7 +916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -949,7 +959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -992,7 +1002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1035,7 +1045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1078,7 +1088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1164,7 +1174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1207,7 +1217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1250,7 +1260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1302,21 +1312,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1356,7 +1366,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1376,7 +1386,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1396,7 +1406,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1416,7 +1426,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1444,20 +1454,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1495,7 +1505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1533,7 +1543,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1609,7 +1619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1647,7 +1657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1685,7 +1695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
